--- a/documentacao/Planilhas/Planilha_De_Requisitos.xlsx
+++ b/documentacao/Planilhas/Planilha_De_Requisitos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ARQUIVOS\TechHumi\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ARQUIVOS\TechHumi\documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>Importancia</t>
-  </si>
-  <si>
     <t>Detalhe</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>NOME</t>
   </si>
   <si>
-    <t>IMPORTANCIA</t>
-  </si>
-  <si>
     <t>ESTIMATIVA</t>
   </si>
   <si>
@@ -350,6 +344,12 @@
   </si>
   <si>
     <t>Redefinição de senha</t>
+  </si>
+  <si>
+    <t>IMPORTÂNCIA</t>
+  </si>
+  <si>
+    <t>Importância</t>
   </si>
 </sst>
 </file>
@@ -883,6 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,7 +908,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="7" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Ênfase2" xfId="7" builtinId="34"/>
@@ -1079,7 +1079,7 @@
   <tableColumns count="4">
     <tableColumn id="1" name="ID" dataDxfId="3"/>
     <tableColumn id="2" name="Descrição" dataDxfId="2"/>
-    <tableColumn id="3" name="Importancia" dataDxfId="1"/>
+    <tableColumn id="3" name="Importância" dataDxfId="1"/>
     <tableColumn id="5" name="Detalhe" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1385,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -1420,13 +1420,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6">
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1434,13 +1434,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6">
         <v>5</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1448,13 +1448,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1462,13 +1462,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6">
         <v>5</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1476,13 +1476,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1490,13 +1490,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6">
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1504,13 +1504,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1518,13 +1518,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1532,23 +1532,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1581,176 +1581,176 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1758,87 +1758,87 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
         <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>53</v>
-      </c>
-      <c r="C35" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
         <v>55</v>
-      </c>
-      <c r="C36" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
         <v>57</v>
-      </c>
-      <c r="C37" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
         <v>59</v>
-      </c>
-      <c r="C38" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
         <v>64</v>
-      </c>
-      <c r="C44" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
         <v>66</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>67</v>
-      </c>
-      <c r="C47" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1851,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,24 +1872,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
+      <c r="A2" s="55">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>4</v>
+      <c r="B2" s="55" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="29">
         <v>5</v>
@@ -1898,13 +1898,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="20">
         <v>5</v>
       </c>
@@ -1912,13 +1912,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="20">
         <v>5</v>
       </c>
@@ -1926,15 +1926,15 @@
         <v>3</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="23">
         <v>5</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G5" s="27">
         <f>SUM(D2:D21)</f>
@@ -1950,11 +1950,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="A6" s="52">
         <v>2</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>77</v>
+      <c r="B6" s="52" t="s">
+        <v>75</v>
       </c>
       <c r="C6" s="34">
         <v>3</v>
@@ -1962,14 +1962,14 @@
       <c r="D6" s="35">
         <v>10</v>
       </c>
-      <c r="E6" s="59" t="s">
-        <v>105</v>
+      <c r="E6" s="51" t="s">
+        <v>103</v>
       </c>
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="37">
         <v>3</v>
       </c>
@@ -1977,16 +1977,16 @@
         <v>3</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="55">
         <v>3</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>79</v>
+      <c r="B8" s="55" t="s">
+        <v>77</v>
       </c>
       <c r="C8" s="29">
         <v>5</v>
@@ -1995,13 +1995,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="20">
         <v>5</v>
       </c>
@@ -2009,13 +2009,13 @@
         <v>3</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="20">
         <v>5</v>
       </c>
@@ -2023,13 +2023,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G11" s="18"/>
     </row>
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" s="42">
         <v>5</v>
@@ -2055,16 +2055,16 @@
         <v>8</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="54">
+      <c r="A13" s="55">
         <v>5</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>43</v>
+      <c r="B13" s="55" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="29">
         <v>5</v>
@@ -2073,13 +2073,13 @@
         <v>7</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="20">
         <v>5</v>
       </c>
@@ -2087,13 +2087,13 @@
         <v>15</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="20">
         <v>5</v>
       </c>
@@ -2101,13 +2101,13 @@
         <v>20</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="23">
         <v>5</v>
       </c>
@@ -2115,16 +2115,16 @@
         <v>30</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="58">
+      <c r="A17" s="59">
         <v>6</v>
       </c>
-      <c r="B17" s="51" t="s">
-        <v>88</v>
+      <c r="B17" s="52" t="s">
+        <v>86</v>
       </c>
       <c r="C17" s="34">
         <v>3</v>
@@ -2133,13 +2133,13 @@
         <v>40</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="43">
         <v>2</v>
       </c>
@@ -2147,13 +2147,13 @@
         <v>30</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="43">
         <v>2</v>
       </c>
@@ -2161,13 +2161,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="43">
         <v>1</v>
       </c>
@@ -2175,13 +2175,13 @@
         <v>15</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="37">
         <v>5</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>24</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G21" s="18"/>
     </row>
